--- a/03.crawler/30.TecDoc/file/1.page.xlsx
+++ b/03.crawler/30.TecDoc/file/1.page.xlsx
@@ -461,14 +461,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://web.tecalliance.net/tecdocsw/en/parts/search?brands=101&amp;groups=247</t>
+          <t>https://web.tecalliance.net/tecdoc/qa/parts/search?brands=21&amp;groups=298</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1900</v>
+        <v>658</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -477,14 +477,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://web.tecalliance.net/tecdocsw/en/parts/search?brands=244&amp;groups=1361</t>
+          <t>https://web.tecalliance.net/tecdoc/qa/parts/search?brands=30&amp;groups=298</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>530</v>
+        <v>1461</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/03.crawler/30.TecDoc/file/1.page.xlsx
+++ b/03.crawler/30.TecDoc/file/1.page.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1461</v>
+        <v>1381</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
